--- a/wzrv/expdata/2015.xlsx
+++ b/wzrv/expdata/2015.xlsx
@@ -95,7 +95,7 @@
     <t>syst2_u</t>
   </si>
   <si>
-    <t>syst3_u</t>
+    <t>syst3_c</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/wzrv/expdata/2015.xlsx
+++ b/wzrv/expdata/2015.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2818855C-4EA8-E940-9F27-1207C866F642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="35140" yWindow="5180" windowWidth="28800" windowHeight="12300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -92,16 +102,16 @@
     <t>target</t>
   </si>
   <si>
+    <t>norm_c</t>
+  </si>
+  <si>
     <t>syst2_u</t>
-  </si>
-  <si>
-    <t>syst3_c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -415,24 +425,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="10.875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="10.375" style="1"/>
-    <col min="15" max="16" width="10.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.375" style="1"/>
-    <col min="18" max="18" width="12.875" style="1" customWidth="1"/>
+    <col min="1" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="10.33203125" style="1"/>
+    <col min="15" max="16" width="10.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" style="1"/>
+    <col min="18" max="18" width="12.83203125" style="1" customWidth="1"/>
     <col min="1019" max="1024" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,10 +480,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -488,7 +498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>7000</v>
       </c>
@@ -548,7 +558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7000</v>
       </c>
@@ -608,7 +618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7000</v>
       </c>
@@ -668,7 +678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7000</v>
       </c>
@@ -728,7 +738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7000</v>
       </c>
@@ -788,7 +798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7000</v>
       </c>
@@ -848,7 +858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7000</v>
       </c>
@@ -908,7 +918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7000</v>
       </c>
@@ -968,7 +978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7000</v>
       </c>
@@ -1028,7 +1038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7000</v>
       </c>
@@ -1088,7 +1098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7000</v>
       </c>
@@ -1148,7 +1158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>7000</v>
       </c>
@@ -1208,7 +1218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>7000</v>
       </c>
@@ -1268,7 +1278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>7000</v>
       </c>
@@ -1328,7 +1338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>7000</v>
       </c>
@@ -1388,7 +1398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>7000</v>
       </c>
@@ -1448,7 +1458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>7000</v>
       </c>
@@ -1508,7 +1518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>7000</v>
       </c>
@@ -1568,7 +1578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>7000</v>
       </c>
@@ -1628,7 +1638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>7000</v>
       </c>
@@ -1688,7 +1698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>7000</v>
       </c>
@@ -1748,7 +1758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>7000</v>
       </c>
